--- a/Hyper612APEX单扇双扇数据.xlsx
+++ b/Hyper612APEX单扇双扇数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25EEA37-2CC6-8541-A61D-D323E1542688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF06117-B304-554E-B5D6-1DFC6E277628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
